--- a/Projekt Diagramme/03 Kanban Board.xlsx
+++ b/Projekt Diagramme/03 Kanban Board.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943FE558-3C20-40A9-9015-6AC6D32425AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFCB73B-2F26-43F0-9E10-8B6308DDA472}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1140" windowWidth="11295" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17340" yWindow="2070" windowWidth="11295" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Präsi</t>
   </si>
   <si>
-    <t>Program zum laufen bringen</t>
-  </si>
-  <si>
     <t>statistik funktion einbauen</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Prio der User Storeis</t>
   </si>
   <si>
-    <t>Diagramme aktualisieren (8,9,10)</t>
-  </si>
-  <si>
     <t>Use Case Diagramm</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>Klassendiagramm</t>
+  </si>
+  <si>
+    <t>Diagramme aktualisiert</t>
+  </si>
+  <si>
+    <t>Zielkonfklikte</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,22 +420,22 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -446,18 +446,15 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -468,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -479,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -489,15 +486,18 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="D10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
